--- a/data/uebungsdatensatz_zve/codebooks/EFILE_SUF_variablen.xlsx
+++ b/data/uebungsdatensatz_zve/codebooks/EFILE_SUF_variablen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Zeitverwendungserhebung\ZVE_2021_22\14_Weitergabe_Daten\Mikrodaten_ZVE_2021_22\codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wu-my.sharepoint.com/personal/clara_himmelbauer_wu_ac_at/Documents/Dokumente/teaching/Flinta-R-Tut-Summer25/data/uebungsdatensatz_zve/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2F36660A-CD3E-49BC-83BE-65231786754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B321CD-EADE-464D-A061-BF915BBF55F8}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{2F36660A-CD3E-49BC-83BE-65231786754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B87B523A-7652-49DD-B564-7A4D2F59F3D8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1860" activeTab="1" xr2:uid="{C287DC8E-AB8F-427E-BF6F-A97295BE5CB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{C287DC8E-AB8F-427E-BF6F-A97295BE5CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="deutsch" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,10 +580,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -621,7 +625,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -727,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -869,7 +873,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -883,20 +887,20 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="73.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="5" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -914,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -925,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -936,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -950,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -964,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -981,7 +985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
@@ -989,7 +993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="C12" s="5" t="s">
         <v>21</v>
@@ -1063,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="C13" s="5" t="s">
         <v>36</v>
@@ -1072,7 +1076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="C14" s="5" t="s">
         <v>38</v>
@@ -1081,7 +1085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>40</v>
@@ -1090,7 +1094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>42</v>
@@ -1099,7 +1103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="C17" s="5" t="s">
         <v>44</v>
@@ -1108,7 +1112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>46</v>
@@ -1117,7 +1121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
         <v>52</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>54</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
@@ -1201,7 +1205,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>56</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1243,7 +1247,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>54</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
@@ -1285,7 +1289,7 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C34" s="5" t="s">
         <v>54</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>56</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C37" s="5" t="s">
         <v>52</v>
       </c>
@@ -1327,7 +1331,7 @@
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C38" s="5" t="s">
         <v>54</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
         <v>56</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
@@ -1369,7 +1373,7 @@
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C42" s="5" t="s">
         <v>54</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C43" s="5" t="s">
         <v>56</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C45" s="5" t="s">
         <v>52</v>
       </c>
@@ -1411,7 +1415,7 @@
       </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C47" s="5" t="s">
         <v>56</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C49" s="5" t="s">
         <v>52</v>
       </c>
@@ -1453,7 +1457,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C50" s="5" t="s">
         <v>54</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C51" s="5" t="s">
         <v>56</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C53" s="5" t="s">
         <v>52</v>
       </c>
@@ -1495,7 +1499,7 @@
       </c>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C54" s="5" t="s">
         <v>54</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C55" s="5" t="s">
         <v>56</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C57" s="5" t="s">
         <v>52</v>
       </c>
@@ -1537,7 +1541,7 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C58" s="5" t="s">
         <v>54</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C59" s="5" t="s">
         <v>56</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C61" s="5" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1583,7 @@
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C62" s="5" t="s">
         <v>54</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C63" s="5" t="s">
         <v>56</v>
       </c>
@@ -1595,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="5" t="s">
         <v>21</v>
       </c>
@@ -1630,13 +1634,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318E5D91-FDFE-49CA-97D8-72D9DBFE9BF7}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F65"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1736,7 +1743,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1816,7 +1823,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -1916,7 +1923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1956,7 +1963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -1976,7 +1983,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -1996,7 +2003,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2016,7 +2023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -2056,7 +2063,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -2076,7 +2083,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2096,7 +2103,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -2136,7 +2143,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2176,7 +2183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2196,7 +2203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2216,7 +2223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -2256,7 +2263,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2296,7 +2303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -2376,7 +2383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2496,7 +2503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2516,7 +2523,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -2536,7 +2543,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2576,7 +2583,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2656,7 +2663,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2696,7 +2703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2743,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -2756,7 +2763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -2776,7 +2783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -2816,7 +2823,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -2856,7 +2863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -2876,7 +2883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -2896,7 +2903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>92</v>
       </c>
